--- a/__repository/test/new_reservation.xlsx
+++ b/__repository/test/new_reservation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -726,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:CX10"/>
+  <dimension ref="A5:CX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CQ5" sqref="CQ5:CT5"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+      <selection activeCell="CH11" sqref="CH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +741,7 @@
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
@@ -1134,6 +1135,9 @@
       </c>
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="E6" t="s">
         <v>102</v>
       </c>
@@ -1370,14 +1374,17 @@
       </c>
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="E7" t="s">
         <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>108</v>
@@ -1482,7 +1489,7 @@
         <v>108</v>
       </c>
       <c r="AT7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="s">
         <v>108</v>
@@ -1551,7 +1558,7 @@
         <v>110</v>
       </c>
       <c r="BR7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT7">
         <v>56</v>
@@ -1572,13 +1579,13 @@
         <v>56</v>
       </c>
       <c r="CF7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="CG7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CH7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CI7" t="s">
         <v>111</v>
@@ -1606,6 +1613,9 @@
       </c>
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
       <c r="E8" t="s">
         <v>102</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>105</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>108</v>
@@ -1718,7 +1728,7 @@
         <v>108</v>
       </c>
       <c r="AT8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="s">
         <v>108</v>
@@ -1787,7 +1797,7 @@
         <v>110</v>
       </c>
       <c r="BR8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT8">
         <v>56</v>
@@ -1808,13 +1818,13 @@
         <v>56</v>
       </c>
       <c r="CF8">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="CG8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="CH8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CI8" t="s">
         <v>111</v>
@@ -1842,14 +1852,17 @@
       </c>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>108</v>
@@ -1954,7 +1967,7 @@
         <v>108</v>
       </c>
       <c r="AT9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="s">
         <v>108</v>
@@ -2023,7 +2036,7 @@
         <v>110</v>
       </c>
       <c r="BR9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT9">
         <v>56</v>
@@ -2044,13 +2057,13 @@
         <v>56</v>
       </c>
       <c r="CF9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CG9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="CH9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CI9" t="s">
         <v>111</v>
@@ -2078,14 +2091,17 @@
       </c>
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>108</v>
@@ -2190,7 +2206,7 @@
         <v>108</v>
       </c>
       <c r="AT10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU10" t="s">
         <v>108</v>
@@ -2259,7 +2275,7 @@
         <v>110</v>
       </c>
       <c r="BR10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BT10">
         <v>56</v>
@@ -2280,10 +2296,10 @@
         <v>56</v>
       </c>
       <c r="CF10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="CG10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="CH10">
         <v>5</v>
@@ -2310,6 +2326,484 @@
         <v>40</v>
       </c>
       <c r="CP10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11">
+        <v>4000018713</v>
+      </c>
+      <c r="M11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" t="s">
+        <v>108</v>
+      </c>
+      <c r="U11" t="s">
+        <v>108</v>
+      </c>
+      <c r="V11" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" t="s">
+        <v>108</v>
+      </c>
+      <c r="X11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT11">
+        <v>23</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX11">
+        <v>25</v>
+      </c>
+      <c r="AY11">
+        <v>15</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BN11">
+        <v>26</v>
+      </c>
+      <c r="BO11">
+        <v>35</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR11">
+        <v>4</v>
+      </c>
+      <c r="BT11">
+        <v>56</v>
+      </c>
+      <c r="BU11">
+        <v>56</v>
+      </c>
+      <c r="BV11">
+        <v>56</v>
+      </c>
+      <c r="BW11">
+        <v>56</v>
+      </c>
+      <c r="BX11">
+        <v>56</v>
+      </c>
+      <c r="BY11">
+        <v>56</v>
+      </c>
+      <c r="CF11">
+        <v>10</v>
+      </c>
+      <c r="CG11">
+        <v>10</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>113</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>114</v>
+      </c>
+      <c r="CM11">
+        <v>100</v>
+      </c>
+      <c r="CN11">
+        <v>72</v>
+      </c>
+      <c r="CO11">
+        <v>40</v>
+      </c>
+      <c r="CP11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12">
+        <v>4000018713</v>
+      </c>
+      <c r="M12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" t="s">
+        <v>108</v>
+      </c>
+      <c r="U12" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" t="s">
+        <v>108</v>
+      </c>
+      <c r="W12" t="s">
+        <v>108</v>
+      </c>
+      <c r="X12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT12">
+        <v>24</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX12">
+        <v>25</v>
+      </c>
+      <c r="AY12">
+        <v>15</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BN12">
+        <v>26</v>
+      </c>
+      <c r="BO12">
+        <v>35</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR12">
+        <v>1</v>
+      </c>
+      <c r="BT12">
+        <v>56</v>
+      </c>
+      <c r="BU12">
+        <v>56</v>
+      </c>
+      <c r="BV12">
+        <v>56</v>
+      </c>
+      <c r="BW12">
+        <v>56</v>
+      </c>
+      <c r="BX12">
+        <v>56</v>
+      </c>
+      <c r="BY12">
+        <v>56</v>
+      </c>
+      <c r="CF12">
+        <v>20</v>
+      </c>
+      <c r="CG12">
+        <v>15</v>
+      </c>
+      <c r="CH12">
+        <v>5</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>111</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>112</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>113</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>114</v>
+      </c>
+      <c r="CM12">
+        <v>100</v>
+      </c>
+      <c r="CN12">
+        <v>72</v>
+      </c>
+      <c r="CO12">
+        <v>40</v>
+      </c>
+      <c r="CP12">
         <v>78</v>
       </c>
     </row>

--- a/__repository/test/new_reservation.xlsx
+++ b/__repository/test/new_reservation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>2. SW</t>
-  </si>
-  <si>
-    <t>1. HW</t>
   </si>
   <si>
     <t>abc</t>
@@ -726,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:CX12"/>
+  <dimension ref="A5:CX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
-      <selection activeCell="CH11" sqref="CH11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,82 +1145,82 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6">
         <v>4000018713</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AL6">
         <v>1</v>
@@ -1232,34 +1229,34 @@
         <v>2</v>
       </c>
       <c r="AN6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AO6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AT6">
         <v>20</v>
       </c>
       <c r="AU6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AV6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AX6">
         <v>25</v>
@@ -1268,43 +1265,43 @@
         <v>15</v>
       </c>
       <c r="AZ6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BB6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BC6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BH6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BJ6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BK6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BL6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BN6">
         <v>26</v>
@@ -1313,10 +1310,10 @@
         <v>35</v>
       </c>
       <c r="BP6" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ6" t="s">
         <v>109</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>110</v>
       </c>
       <c r="BR6">
         <v>1</v>
@@ -1349,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="CI6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>111</v>
       </c>
-      <c r="CJ6" t="s">
+      <c r="CK6" t="s">
         <v>112</v>
       </c>
-      <c r="CK6" t="s">
+      <c r="CL6" t="s">
         <v>113</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>114</v>
       </c>
       <c r="CM6">
         <v>100</v>
@@ -1387,82 +1384,82 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7">
         <v>4000018713</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AL7">
         <v>1</v>
@@ -1471,34 +1468,34 @@
         <v>2</v>
       </c>
       <c r="AN7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AO7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AT7">
         <v>20</v>
       </c>
       <c r="AU7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AV7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AX7">
         <v>25</v>
@@ -1507,43 +1504,43 @@
         <v>15</v>
       </c>
       <c r="AZ7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BB7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BC7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BH7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BJ7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BK7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BL7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BN7">
         <v>26</v>
@@ -1552,10 +1549,10 @@
         <v>35</v>
       </c>
       <c r="BP7" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ7" t="s">
         <v>109</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>110</v>
       </c>
       <c r="BR7">
         <v>1</v>
@@ -1588,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="CI7" t="s">
+        <v>110</v>
+      </c>
+      <c r="CJ7" t="s">
         <v>111</v>
       </c>
-      <c r="CJ7" t="s">
+      <c r="CK7" t="s">
         <v>112</v>
       </c>
-      <c r="CK7" t="s">
+      <c r="CL7" t="s">
         <v>113</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>114</v>
       </c>
       <c r="CM7">
         <v>100</v>
@@ -1626,82 +1623,82 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K8">
         <v>4000018713</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AL8">
         <v>1</v>
@@ -1710,34 +1707,34 @@
         <v>2</v>
       </c>
       <c r="AN8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AO8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AT8">
         <v>21</v>
       </c>
       <c r="AU8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AV8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AX8">
         <v>25</v>
@@ -1746,43 +1743,43 @@
         <v>15</v>
       </c>
       <c r="AZ8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BB8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BC8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BH8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BJ8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BK8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BL8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BN8">
         <v>26</v>
@@ -1791,10 +1788,10 @@
         <v>35</v>
       </c>
       <c r="BP8" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ8" t="s">
         <v>109</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>110</v>
       </c>
       <c r="BR8">
         <v>2</v>
@@ -1827,16 +1824,16 @@
         <v>13</v>
       </c>
       <c r="CI8" t="s">
+        <v>110</v>
+      </c>
+      <c r="CJ8" t="s">
         <v>111</v>
       </c>
-      <c r="CJ8" t="s">
+      <c r="CK8" t="s">
         <v>112</v>
       </c>
-      <c r="CK8" t="s">
+      <c r="CL8" t="s">
         <v>113</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>114</v>
       </c>
       <c r="CM8">
         <v>100</v>
@@ -1865,82 +1862,82 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9">
         <v>4000018713</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AL9">
         <v>1</v>
@@ -1949,34 +1946,34 @@
         <v>2</v>
       </c>
       <c r="AN9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AO9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AT9">
         <v>22</v>
       </c>
       <c r="AU9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AV9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AX9">
         <v>25</v>
@@ -1985,43 +1982,43 @@
         <v>15</v>
       </c>
       <c r="AZ9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BB9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BC9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BH9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BJ9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BK9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BL9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BN9">
         <v>26</v>
@@ -2030,10 +2027,10 @@
         <v>35</v>
       </c>
       <c r="BP9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ9" t="s">
         <v>109</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>110</v>
       </c>
       <c r="BR9">
         <v>3</v>
@@ -2066,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="CI9" t="s">
+        <v>110</v>
+      </c>
+      <c r="CJ9" t="s">
         <v>111</v>
       </c>
-      <c r="CJ9" t="s">
+      <c r="CK9" t="s">
         <v>112</v>
       </c>
-      <c r="CK9" t="s">
+      <c r="CL9" t="s">
         <v>113</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>114</v>
       </c>
       <c r="CM9">
         <v>100</v>
@@ -2104,82 +2101,82 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10">
         <v>4000018713</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AL10">
         <v>1</v>
@@ -2188,34 +2185,34 @@
         <v>2</v>
       </c>
       <c r="AN10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AO10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AT10">
         <v>22</v>
       </c>
       <c r="AU10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AV10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AX10">
         <v>25</v>
@@ -2224,43 +2221,43 @@
         <v>15</v>
       </c>
       <c r="AZ10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BB10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BC10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BH10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BJ10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BK10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BL10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BN10">
         <v>26</v>
@@ -2269,10 +2266,10 @@
         <v>35</v>
       </c>
       <c r="BP10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ10" t="s">
         <v>109</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>110</v>
       </c>
       <c r="BR10">
         <v>3</v>
@@ -2305,16 +2302,16 @@
         <v>5</v>
       </c>
       <c r="CI10" t="s">
+        <v>110</v>
+      </c>
+      <c r="CJ10" t="s">
         <v>111</v>
       </c>
-      <c r="CJ10" t="s">
+      <c r="CK10" t="s">
         <v>112</v>
       </c>
-      <c r="CK10" t="s">
+      <c r="CL10" t="s">
         <v>113</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>114</v>
       </c>
       <c r="CM10">
         <v>100</v>
@@ -2343,82 +2340,82 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K11">
         <v>4000018713</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AL11">
         <v>1</v>
@@ -2427,34 +2424,34 @@
         <v>2</v>
       </c>
       <c r="AN11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AO11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AT11">
         <v>23</v>
       </c>
       <c r="AU11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AV11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AX11">
         <v>25</v>
@@ -2463,43 +2460,43 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BB11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BC11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BH11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BJ11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BK11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BL11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BN11">
         <v>26</v>
@@ -2508,10 +2505,10 @@
         <v>35</v>
       </c>
       <c r="BP11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ11" t="s">
         <v>109</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>110</v>
       </c>
       <c r="BR11">
         <v>4</v>
@@ -2544,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="CI11" t="s">
+        <v>110</v>
+      </c>
+      <c r="CJ11" t="s">
         <v>111</v>
       </c>
-      <c r="CJ11" t="s">
+      <c r="CK11" t="s">
         <v>112</v>
       </c>
-      <c r="CK11" t="s">
+      <c r="CL11" t="s">
         <v>113</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>114</v>
       </c>
       <c r="CM11">
         <v>100</v>
@@ -2565,245 +2562,6 @@
         <v>40</v>
       </c>
       <c r="CP11">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12">
-        <v>4000018713</v>
-      </c>
-      <c r="M12" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>108</v>
-      </c>
-      <c r="R12" t="s">
-        <v>108</v>
-      </c>
-      <c r="S12" t="s">
-        <v>108</v>
-      </c>
-      <c r="U12" t="s">
-        <v>108</v>
-      </c>
-      <c r="V12" t="s">
-        <v>108</v>
-      </c>
-      <c r="W12" t="s">
-        <v>108</v>
-      </c>
-      <c r="X12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL12">
-        <v>1</v>
-      </c>
-      <c r="AM12">
-        <v>2</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT12">
-        <v>24</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX12">
-        <v>25</v>
-      </c>
-      <c r="AY12">
-        <v>15</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>108</v>
-      </c>
-      <c r="BN12">
-        <v>26</v>
-      </c>
-      <c r="BO12">
-        <v>35</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR12">
-        <v>1</v>
-      </c>
-      <c r="BT12">
-        <v>56</v>
-      </c>
-      <c r="BU12">
-        <v>56</v>
-      </c>
-      <c r="BV12">
-        <v>56</v>
-      </c>
-      <c r="BW12">
-        <v>56</v>
-      </c>
-      <c r="BX12">
-        <v>56</v>
-      </c>
-      <c r="BY12">
-        <v>56</v>
-      </c>
-      <c r="CF12">
-        <v>20</v>
-      </c>
-      <c r="CG12">
-        <v>15</v>
-      </c>
-      <c r="CH12">
-        <v>5</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>111</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>113</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>114</v>
-      </c>
-      <c r="CM12">
-        <v>100</v>
-      </c>
-      <c r="CN12">
-        <v>72</v>
-      </c>
-      <c r="CO12">
-        <v>40</v>
-      </c>
-      <c r="CP12">
         <v>78</v>
       </c>
     </row>

--- a/__repository/test/new_reservation.xlsx
+++ b/__repository/test/new_reservation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -366,6 +366,24 @@
   </si>
   <si>
     <t>zxcvb</t>
+  </si>
+  <si>
+    <t>2GNEW0001</t>
+  </si>
+  <si>
+    <t>2GNEW0002</t>
+  </si>
+  <si>
+    <t>2GNEW0003</t>
+  </si>
+  <si>
+    <t>2GNEW0004</t>
+  </si>
+  <si>
+    <t>2GNEW0005</t>
+  </si>
+  <si>
+    <t>2GNEW0006</t>
   </si>
 </sst>
 </file>
@@ -726,7 +744,7 @@
   <dimension ref="A5:CX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,6 +1354,9 @@
       <c r="BY6">
         <v>56</v>
       </c>
+      <c r="BZ6" t="s">
+        <v>114</v>
+      </c>
       <c r="CF6">
         <v>20</v>
       </c>
@@ -1575,6 +1596,9 @@
       <c r="BY7">
         <v>56</v>
       </c>
+      <c r="BZ7" t="s">
+        <v>115</v>
+      </c>
       <c r="CF7">
         <v>20</v>
       </c>
@@ -1814,6 +1838,9 @@
       <c r="BY8">
         <v>56</v>
       </c>
+      <c r="BZ8" t="s">
+        <v>116</v>
+      </c>
       <c r="CF8">
         <v>23</v>
       </c>
@@ -2053,6 +2080,9 @@
       <c r="BY9">
         <v>56</v>
       </c>
+      <c r="BZ9" t="s">
+        <v>117</v>
+      </c>
       <c r="CF9">
         <v>15</v>
       </c>
@@ -2089,7 +2119,7 @@
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>102</v>
@@ -2291,6 +2321,9 @@
       </c>
       <c r="BY10">
         <v>56</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>118</v>
       </c>
       <c r="CF10">
         <v>15</v>
@@ -2328,7 +2361,7 @@
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>103</v>
@@ -2530,6 +2563,9 @@
       </c>
       <c r="BY11">
         <v>56</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>119</v>
       </c>
       <c r="CF11">
         <v>10</v>

--- a/__repository/test/new_reservation.xlsx
+++ b/__repository/test/new_reservation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -347,15 +347,6 @@
     <t>2. SW</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>aktif</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
     <t>xxx</t>
   </si>
   <si>
@@ -372,12 +363,6 @@
   </si>
   <si>
     <t>2GNEW0002</t>
-  </si>
-  <si>
-    <t>2GNEW0003</t>
-  </si>
-  <si>
-    <t>2GNEW0004</t>
   </si>
   <si>
     <t>2GNEW0005</t>
@@ -744,7 +729,7 @@
   <dimension ref="A5:CX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="BZ6" sqref="BZ6:BZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,203 +1144,8 @@
       <c r="H6" t="s">
         <v>104</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6">
-        <v>4000018713</v>
-      </c>
-      <c r="M6" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" t="s">
-        <v>107</v>
-      </c>
-      <c r="P6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R6" t="s">
-        <v>107</v>
-      </c>
-      <c r="S6" t="s">
-        <v>107</v>
-      </c>
-      <c r="U6" t="s">
-        <v>107</v>
-      </c>
-      <c r="V6" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" t="s">
-        <v>107</v>
-      </c>
-      <c r="X6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6">
-        <v>2</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT6">
-        <v>20</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX6">
-        <v>25</v>
-      </c>
-      <c r="AY6">
-        <v>15</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BN6">
-        <v>26</v>
-      </c>
-      <c r="BO6">
-        <v>35</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>108</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BT6">
-        <v>56</v>
-      </c>
-      <c r="BU6">
-        <v>56</v>
-      </c>
-      <c r="BV6">
-        <v>56</v>
-      </c>
-      <c r="BW6">
-        <v>56</v>
-      </c>
-      <c r="BX6">
-        <v>56</v>
-      </c>
-      <c r="BY6">
-        <v>56</v>
-      </c>
       <c r="BZ6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="CF6">
         <v>20</v>
@@ -1367,16 +1157,16 @@
         <v>0</v>
       </c>
       <c r="CI6" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL6" t="s">
         <v>110</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>111</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>112</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>113</v>
       </c>
       <c r="CM6">
         <v>100</v>
@@ -1389,6 +1179,9 @@
       </c>
       <c r="CP6">
         <v>78</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.25">
@@ -1401,203 +1194,8 @@
       <c r="H7" t="s">
         <v>104</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7">
-        <v>4000018713</v>
-      </c>
-      <c r="M7" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>107</v>
-      </c>
-      <c r="R7" t="s">
-        <v>107</v>
-      </c>
-      <c r="S7" t="s">
-        <v>107</v>
-      </c>
-      <c r="U7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V7" t="s">
-        <v>107</v>
-      </c>
-      <c r="W7" t="s">
-        <v>107</v>
-      </c>
-      <c r="X7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7">
-        <v>2</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT7">
-        <v>20</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX7">
-        <v>25</v>
-      </c>
-      <c r="AY7">
-        <v>15</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BN7">
-        <v>26</v>
-      </c>
-      <c r="BO7">
-        <v>35</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>108</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR7">
-        <v>1</v>
-      </c>
-      <c r="BT7">
-        <v>56</v>
-      </c>
-      <c r="BU7">
-        <v>56</v>
-      </c>
-      <c r="BV7">
-        <v>56</v>
-      </c>
-      <c r="BW7">
-        <v>56</v>
-      </c>
-      <c r="BX7">
-        <v>56</v>
-      </c>
-      <c r="BY7">
-        <v>56</v>
-      </c>
       <c r="BZ7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="CF7">
         <v>20</v>
@@ -1609,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="CI7" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL7" t="s">
         <v>110</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>111</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>112</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>113</v>
       </c>
       <c r="CM7">
         <v>100</v>
@@ -1631,6 +1229,9 @@
       </c>
       <c r="CP7">
         <v>78</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.25">
@@ -1643,203 +1244,8 @@
       <c r="H8" t="s">
         <v>105</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8">
-        <v>4000018713</v>
-      </c>
-      <c r="M8" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" t="s">
-        <v>107</v>
-      </c>
-      <c r="P8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" t="s">
-        <v>107</v>
-      </c>
-      <c r="S8" t="s">
-        <v>107</v>
-      </c>
-      <c r="U8" t="s">
-        <v>107</v>
-      </c>
-      <c r="V8" t="s">
-        <v>107</v>
-      </c>
-      <c r="W8" t="s">
-        <v>107</v>
-      </c>
-      <c r="X8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-      <c r="AM8">
-        <v>2</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT8">
-        <v>21</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX8">
-        <v>25</v>
-      </c>
-      <c r="AY8">
-        <v>15</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BN8">
-        <v>26</v>
-      </c>
-      <c r="BO8">
-        <v>35</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>108</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR8">
-        <v>2</v>
-      </c>
-      <c r="BT8">
-        <v>56</v>
-      </c>
-      <c r="BU8">
-        <v>56</v>
-      </c>
-      <c r="BV8">
-        <v>56</v>
-      </c>
-      <c r="BW8">
-        <v>56</v>
-      </c>
-      <c r="BX8">
-        <v>56</v>
-      </c>
-      <c r="BY8">
-        <v>56</v>
-      </c>
       <c r="BZ8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="CF8">
         <v>23</v>
@@ -1851,16 +1257,16 @@
         <v>13</v>
       </c>
       <c r="CI8" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL8" t="s">
         <v>110</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>111</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>112</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>113</v>
       </c>
       <c r="CM8">
         <v>100</v>
@@ -1873,6 +1279,9 @@
       </c>
       <c r="CP8">
         <v>78</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.25">
@@ -1885,203 +1294,8 @@
       <c r="H9" t="s">
         <v>105</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9">
-        <v>4000018713</v>
-      </c>
-      <c r="M9" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" t="s">
-        <v>107</v>
-      </c>
-      <c r="S9" t="s">
-        <v>107</v>
-      </c>
-      <c r="U9" t="s">
-        <v>107</v>
-      </c>
-      <c r="V9" t="s">
-        <v>107</v>
-      </c>
-      <c r="W9" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9">
-        <v>2</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT9">
-        <v>22</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX9">
-        <v>25</v>
-      </c>
-      <c r="AY9">
-        <v>15</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BN9">
-        <v>26</v>
-      </c>
-      <c r="BO9">
-        <v>35</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>108</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR9">
-        <v>3</v>
-      </c>
-      <c r="BT9">
-        <v>56</v>
-      </c>
-      <c r="BU9">
-        <v>56</v>
-      </c>
-      <c r="BV9">
-        <v>56</v>
-      </c>
-      <c r="BW9">
-        <v>56</v>
-      </c>
-      <c r="BX9">
-        <v>56</v>
-      </c>
-      <c r="BY9">
-        <v>56</v>
-      </c>
       <c r="BZ9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="CF9">
         <v>15</v>
@@ -2093,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="CI9" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL9" t="s">
         <v>110</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>111</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>112</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>113</v>
       </c>
       <c r="CM9">
         <v>100</v>
@@ -2115,6 +1329,9 @@
       </c>
       <c r="CP9">
         <v>78</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.25">
@@ -2127,203 +1344,8 @@
       <c r="H10" t="s">
         <v>105</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10">
-        <v>4000018713</v>
-      </c>
-      <c r="M10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
-      <c r="O10" t="s">
-        <v>107</v>
-      </c>
-      <c r="P10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>107</v>
-      </c>
-      <c r="R10" t="s">
-        <v>107</v>
-      </c>
-      <c r="S10" t="s">
-        <v>107</v>
-      </c>
-      <c r="U10" t="s">
-        <v>107</v>
-      </c>
-      <c r="V10" t="s">
-        <v>107</v>
-      </c>
-      <c r="W10" t="s">
-        <v>107</v>
-      </c>
-      <c r="X10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL10">
-        <v>1</v>
-      </c>
-      <c r="AM10">
-        <v>2</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT10">
-        <v>22</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX10">
-        <v>25</v>
-      </c>
-      <c r="AY10">
-        <v>15</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BN10">
-        <v>26</v>
-      </c>
-      <c r="BO10">
-        <v>35</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>108</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR10">
-        <v>3</v>
-      </c>
-      <c r="BT10">
-        <v>56</v>
-      </c>
-      <c r="BU10">
-        <v>56</v>
-      </c>
-      <c r="BV10">
-        <v>56</v>
-      </c>
-      <c r="BW10">
-        <v>56</v>
-      </c>
-      <c r="BX10">
-        <v>56</v>
-      </c>
-      <c r="BY10">
-        <v>56</v>
-      </c>
       <c r="BZ10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="CF10">
         <v>15</v>
@@ -2335,16 +1357,16 @@
         <v>5</v>
       </c>
       <c r="CI10" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL10" t="s">
         <v>110</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>112</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>113</v>
       </c>
       <c r="CM10">
         <v>100</v>
@@ -2357,6 +1379,9 @@
       </c>
       <c r="CP10">
         <v>78</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.25">
@@ -2369,203 +1394,8 @@
       <c r="H11" t="s">
         <v>106</v>
       </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11">
-        <v>4000018713</v>
-      </c>
-      <c r="M11" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O11" t="s">
-        <v>107</v>
-      </c>
-      <c r="P11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>107</v>
-      </c>
-      <c r="R11" t="s">
-        <v>107</v>
-      </c>
-      <c r="S11" t="s">
-        <v>107</v>
-      </c>
-      <c r="U11" t="s">
-        <v>107</v>
-      </c>
-      <c r="V11" t="s">
-        <v>107</v>
-      </c>
-      <c r="W11" t="s">
-        <v>107</v>
-      </c>
-      <c r="X11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL11">
-        <v>1</v>
-      </c>
-      <c r="AM11">
-        <v>2</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT11">
-        <v>23</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX11">
-        <v>25</v>
-      </c>
-      <c r="AY11">
-        <v>15</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BN11">
-        <v>26</v>
-      </c>
-      <c r="BO11">
-        <v>35</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>108</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR11">
-        <v>4</v>
-      </c>
-      <c r="BT11">
-        <v>56</v>
-      </c>
-      <c r="BU11">
-        <v>56</v>
-      </c>
-      <c r="BV11">
-        <v>56</v>
-      </c>
-      <c r="BW11">
-        <v>56</v>
-      </c>
-      <c r="BX11">
-        <v>56</v>
-      </c>
-      <c r="BY11">
-        <v>56</v>
-      </c>
       <c r="BZ11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="CF11">
         <v>10</v>
@@ -2577,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="CI11" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL11" t="s">
         <v>110</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>111</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>112</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>113</v>
       </c>
       <c r="CM11">
         <v>100</v>
@@ -2599,6 +1429,9 @@
       </c>
       <c r="CP11">
         <v>78</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/__repository/test/new_reservation.xlsx
+++ b/__repository/test/new_reservation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -726,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:CX11"/>
+  <dimension ref="A5:CX17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BZ6" sqref="BZ6:BZ11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,6 +1434,306 @@
         <v>114</v>
       </c>
     </row>
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF12">
+        <v>20</v>
+      </c>
+      <c r="CG12">
+        <v>20</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM12">
+        <v>100</v>
+      </c>
+      <c r="CN12">
+        <v>72</v>
+      </c>
+      <c r="CO12">
+        <v>40</v>
+      </c>
+      <c r="CP12">
+        <v>78</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF13">
+        <v>20</v>
+      </c>
+      <c r="CG13">
+        <v>20</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM13">
+        <v>100</v>
+      </c>
+      <c r="CN13">
+        <v>72</v>
+      </c>
+      <c r="CO13">
+        <v>40</v>
+      </c>
+      <c r="CP13">
+        <v>78</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF14">
+        <v>23</v>
+      </c>
+      <c r="CG14">
+        <v>10</v>
+      </c>
+      <c r="CH14">
+        <v>13</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM14">
+        <v>100</v>
+      </c>
+      <c r="CN14">
+        <v>72</v>
+      </c>
+      <c r="CO14">
+        <v>40</v>
+      </c>
+      <c r="CP14">
+        <v>78</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>113</v>
+      </c>
+      <c r="CF15">
+        <v>15</v>
+      </c>
+      <c r="CG15">
+        <v>15</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM15">
+        <v>100</v>
+      </c>
+      <c r="CN15">
+        <v>72</v>
+      </c>
+      <c r="CO15">
+        <v>40</v>
+      </c>
+      <c r="CP15">
+        <v>78</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>113</v>
+      </c>
+      <c r="CF16">
+        <v>15</v>
+      </c>
+      <c r="CG16">
+        <v>10</v>
+      </c>
+      <c r="CH16">
+        <v>5</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM16">
+        <v>100</v>
+      </c>
+      <c r="CN16">
+        <v>72</v>
+      </c>
+      <c r="CO16">
+        <v>40</v>
+      </c>
+      <c r="CP16">
+        <v>78</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:95" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF17">
+        <v>10</v>
+      </c>
+      <c r="CG17">
+        <v>10</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM17">
+        <v>100</v>
+      </c>
+      <c r="CN17">
+        <v>72</v>
+      </c>
+      <c r="CO17">
+        <v>40</v>
+      </c>
+      <c r="CP17">
+        <v>78</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/__repository/test/new_reservation.xlsx
+++ b/__repository/test/new_reservation.xlsx
@@ -729,7 +729,7 @@
   <dimension ref="A5:CX17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>1</v>
+        <v>10000001</v>
       </c>
       <c r="E6" t="s">
         <v>102</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>1</v>
+        <v>10000001</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>2</v>
+        <v>10000002</v>
       </c>
       <c r="E8" t="s">
         <v>102</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>3</v>
+        <v>10000003</v>
       </c>
       <c r="E9" t="s">
         <v>102</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>4</v>
+        <v>10000004</v>
       </c>
       <c r="E10" t="s">
         <v>102</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>5</v>
+        <v>10000005</v>
       </c>
       <c r="E11" t="s">
         <v>103</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>1</v>
+        <v>10000001</v>
       </c>
       <c r="E12" t="s">
         <v>102</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>1</v>
+        <v>10000001</v>
       </c>
       <c r="E13" t="s">
         <v>102</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="14" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>2</v>
+        <v>10000002</v>
       </c>
       <c r="E14" t="s">
         <v>102</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>3</v>
+        <v>10000003</v>
       </c>
       <c r="E15" t="s">
         <v>102</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="16" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>4</v>
+        <v>10000004</v>
       </c>
       <c r="E16" t="s">
         <v>102</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="17" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>5</v>
+        <v>10000005</v>
       </c>
       <c r="E17" t="s">
         <v>103</v>
